--- a/my-Solution/src/main/java/com/outputFiles/repository/LocationDetails.xlsx
+++ b/my-Solution/src/main/java/com/outputFiles/repository/LocationDetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="56">
   <si>
     <t>National Hardware redevelopment</t>
   </si>
@@ -130,6 +130,57 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>720 W. Virginia St., Milwaukee</t>
+  </si>
+  <si>
+    <t>43.03</t>
+  </si>
+  <si>
+    <t>Tannery Apartments</t>
+  </si>
+  <si>
+    <t>Convert former warehouse, office space into 69 apartments</t>
+  </si>
+  <si>
+    <t>LCM Funds LLC</t>
+  </si>
+  <si>
+    <t>More than $10 million</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>6051 S. Moorland Road, New Berlin</t>
+  </si>
+  <si>
+    <t>42.94</t>
+  </si>
+  <si>
+    <t>Speculative industrial</t>
+  </si>
+  <si>
+    <t>192,800-square-foot speculative industrial building</t>
+  </si>
+  <si>
+    <t>Late spring 2018</t>
+  </si>
+  <si>
+    <t>Northeast corner of 27th Street and Rawson Avenue, Oak Creek</t>
+  </si>
+  <si>
+    <t>42.92</t>
+  </si>
+  <si>
+    <t>All Star Buick/GMC</t>
+  </si>
+  <si>
+    <t>All Star Buick/GMC dealership building with 31,000 square feet, 323 parking stalls for inventory and customers</t>
+  </si>
+  <si>
+    <t>All Star</t>
+  </si>
 </sst>
 </file>
 
@@ -2741,6 +2792,5364 @@
         <v>38</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" t="s">
+        <v>14</v>
+      </c>
+      <c r="U23" t="s">
+        <v>15</v>
+      </c>
+      <c r="V23" t="s">
+        <v>16</v>
+      </c>
+      <c r="W23" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" t="s">
+        <v>14</v>
+      </c>
+      <c r="U24" t="s">
+        <v>15</v>
+      </c>
+      <c r="V24" t="s">
+        <v>16</v>
+      </c>
+      <c r="W24" t="s">
+        <v>17</v>
+      </c>
+      <c r="X24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" t="s">
+        <v>17</v>
+      </c>
+      <c r="X25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" t="s">
+        <v>14</v>
+      </c>
+      <c r="U26" t="s">
+        <v>15</v>
+      </c>
+      <c r="V26" t="s">
+        <v>16</v>
+      </c>
+      <c r="W26" t="s">
+        <v>17</v>
+      </c>
+      <c r="X26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" t="s">
+        <v>14</v>
+      </c>
+      <c r="U27" t="s">
+        <v>15</v>
+      </c>
+      <c r="V27" t="s">
+        <v>16</v>
+      </c>
+      <c r="W27" t="s">
+        <v>17</v>
+      </c>
+      <c r="X27" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" t="s">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" t="s">
+        <v>14</v>
+      </c>
+      <c r="U28" t="s">
+        <v>15</v>
+      </c>
+      <c r="V28" t="s">
+        <v>16</v>
+      </c>
+      <c r="W28" t="s">
+        <v>17</v>
+      </c>
+      <c r="X28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29" t="s">
+        <v>14</v>
+      </c>
+      <c r="U29" t="s">
+        <v>15</v>
+      </c>
+      <c r="V29" t="s">
+        <v>16</v>
+      </c>
+      <c r="W29" t="s">
+        <v>17</v>
+      </c>
+      <c r="X29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" t="s">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s">
+        <v>7</v>
+      </c>
+      <c r="T30" t="s">
+        <v>14</v>
+      </c>
+      <c r="U30" t="s">
+        <v>15</v>
+      </c>
+      <c r="V30" t="s">
+        <v>16</v>
+      </c>
+      <c r="W30" t="s">
+        <v>17</v>
+      </c>
+      <c r="X30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" t="s">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" t="s">
+        <v>14</v>
+      </c>
+      <c r="U31" t="s">
+        <v>15</v>
+      </c>
+      <c r="V31" t="s">
+        <v>16</v>
+      </c>
+      <c r="W31" t="s">
+        <v>17</v>
+      </c>
+      <c r="X31" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" t="s">
+        <v>14</v>
+      </c>
+      <c r="U32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V32" t="s">
+        <v>16</v>
+      </c>
+      <c r="W32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" t="s">
+        <v>11</v>
+      </c>
+      <c r="O33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>13</v>
+      </c>
+      <c r="R33" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T33" t="s">
+        <v>14</v>
+      </c>
+      <c r="U33" t="s">
+        <v>15</v>
+      </c>
+      <c r="V33" t="s">
+        <v>16</v>
+      </c>
+      <c r="W33" t="s">
+        <v>17</v>
+      </c>
+      <c r="X33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s">
+        <v>7</v>
+      </c>
+      <c r="T34" t="s">
+        <v>14</v>
+      </c>
+      <c r="U34" t="s">
+        <v>15</v>
+      </c>
+      <c r="V34" t="s">
+        <v>16</v>
+      </c>
+      <c r="W34" t="s">
+        <v>17</v>
+      </c>
+      <c r="X34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" t="s">
+        <v>11</v>
+      </c>
+      <c r="O35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s">
+        <v>7</v>
+      </c>
+      <c r="T35" t="s">
+        <v>14</v>
+      </c>
+      <c r="U35" t="s">
+        <v>15</v>
+      </c>
+      <c r="V35" t="s">
+        <v>16</v>
+      </c>
+      <c r="W35" t="s">
+        <v>17</v>
+      </c>
+      <c r="X35" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" t="s">
+        <v>11</v>
+      </c>
+      <c r="O36" t="s">
+        <v>12</v>
+      </c>
+      <c r="P36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" t="s">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" t="s">
+        <v>14</v>
+      </c>
+      <c r="U36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V36" t="s">
+        <v>16</v>
+      </c>
+      <c r="W36" t="s">
+        <v>17</v>
+      </c>
+      <c r="X36" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" t="s">
+        <v>11</v>
+      </c>
+      <c r="O37" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>13</v>
+      </c>
+      <c r="R37" t="s">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" t="s">
+        <v>14</v>
+      </c>
+      <c r="U37" t="s">
+        <v>15</v>
+      </c>
+      <c r="V37" t="s">
+        <v>16</v>
+      </c>
+      <c r="W37" t="s">
+        <v>17</v>
+      </c>
+      <c r="X37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" t="s">
+        <v>11</v>
+      </c>
+      <c r="O38" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" t="s">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" t="s">
+        <v>14</v>
+      </c>
+      <c r="U38" t="s">
+        <v>15</v>
+      </c>
+      <c r="V38" t="s">
+        <v>16</v>
+      </c>
+      <c r="W38" t="s">
+        <v>17</v>
+      </c>
+      <c r="X38" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC38" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39" t="s">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" t="s">
+        <v>14</v>
+      </c>
+      <c r="U39" t="s">
+        <v>15</v>
+      </c>
+      <c r="V39" t="s">
+        <v>16</v>
+      </c>
+      <c r="W39" t="s">
+        <v>17</v>
+      </c>
+      <c r="X39" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX39" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB39" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC39" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" t="s">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40" t="s">
+        <v>14</v>
+      </c>
+      <c r="U40" t="s">
+        <v>15</v>
+      </c>
+      <c r="V40" t="s">
+        <v>16</v>
+      </c>
+      <c r="W40" t="s">
+        <v>17</v>
+      </c>
+      <c r="X40" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP40" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW40" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX40" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB40" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC40" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" t="s">
+        <v>14</v>
+      </c>
+      <c r="U41" t="s">
+        <v>15</v>
+      </c>
+      <c r="V41" t="s">
+        <v>16</v>
+      </c>
+      <c r="W41" t="s">
+        <v>17</v>
+      </c>
+      <c r="X41" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" t="s">
+        <v>11</v>
+      </c>
+      <c r="O42" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>13</v>
+      </c>
+      <c r="R42" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" t="s">
+        <v>14</v>
+      </c>
+      <c r="U42" t="s">
+        <v>15</v>
+      </c>
+      <c r="V42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W42" t="s">
+        <v>17</v>
+      </c>
+      <c r="X42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN42" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV42" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW42" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX42" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY42" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ42" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA42" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB42" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC42" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" t="s">
+        <v>11</v>
+      </c>
+      <c r="O43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" t="s">
+        <v>14</v>
+      </c>
+      <c r="U43" t="s">
+        <v>15</v>
+      </c>
+      <c r="V43" t="s">
+        <v>16</v>
+      </c>
+      <c r="W43" t="s">
+        <v>17</v>
+      </c>
+      <c r="X43" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG43" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK43" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL43" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM43" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN43" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO43" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP43" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ43" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR43" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS43" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT43" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU43" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV43" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW43" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX43" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY43" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ43" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA43" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB43" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC43" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s">
+        <v>7</v>
+      </c>
+      <c r="T44" t="s">
+        <v>14</v>
+      </c>
+      <c r="U44" t="s">
+        <v>15</v>
+      </c>
+      <c r="V44" t="s">
+        <v>16</v>
+      </c>
+      <c r="W44" t="s">
+        <v>17</v>
+      </c>
+      <c r="X44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG44" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV44" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW44" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX44" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY44" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ44" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA44" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB44" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC44" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" t="s">
+        <v>11</v>
+      </c>
+      <c r="O45" t="s">
+        <v>12</v>
+      </c>
+      <c r="P45" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s">
+        <v>7</v>
+      </c>
+      <c r="T45" t="s">
+        <v>14</v>
+      </c>
+      <c r="U45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V45" t="s">
+        <v>16</v>
+      </c>
+      <c r="W45" t="s">
+        <v>17</v>
+      </c>
+      <c r="X45" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG45" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK45" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL45" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM45" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN45" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO45" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP45" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ45" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR45" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS45" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT45" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU45" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV45" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW45" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX45" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY45" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ45" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA45" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB45" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC45" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" t="s">
+        <v>11</v>
+      </c>
+      <c r="O46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s">
+        <v>7</v>
+      </c>
+      <c r="T46" t="s">
+        <v>14</v>
+      </c>
+      <c r="U46" t="s">
+        <v>15</v>
+      </c>
+      <c r="V46" t="s">
+        <v>16</v>
+      </c>
+      <c r="W46" t="s">
+        <v>17</v>
+      </c>
+      <c r="X46" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG46" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN46" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO46" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP46" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR46" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS46" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT46" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU46" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV46" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW46" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX46" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY46" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA46" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB46" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC46" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD46" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/my-Solution/src/main/java/com/outputFiles/repository/LocationDetails.xlsx
+++ b/my-Solution/src/main/java/com/outputFiles/repository/LocationDetails.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{97CB2640-45E7-465B-A4E4-C2A7C6284255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Locations" r:id="rId3" sheetId="1"/>
+    <sheet name="Locations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="56">
   <si>
     <t>National Hardware redevelopment</t>
   </si>
@@ -185,11 +189,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -201,7 +204,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -219,20 +222,333 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CD46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -262,9 +578,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -321,9 +637,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -380,9 +696,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -466,9 +782,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -552,9 +868,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -568,9 +884,6 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
@@ -638,9 +951,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -654,9 +967,6 @@
       <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
@@ -751,9 +1061,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -767,9 +1077,6 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
@@ -864,9 +1171,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -880,9 +1187,6 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
@@ -977,9 +1281,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -993,9 +1297,6 @@
       <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
       <c r="G11" t="s">
         <v>5</v>
       </c>
@@ -1090,9 +1391,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1106,9 +1407,6 @@
       <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" t="s">
         <v>5</v>
       </c>
@@ -1230,9 +1528,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1246,9 +1544,6 @@
       <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
       <c r="G13" t="s">
         <v>5</v>
       </c>
@@ -1370,9 +1665,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1386,9 +1681,6 @@
       <c r="E14" t="s">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
@@ -1510,9 +1802,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -1526,9 +1818,6 @@
       <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
       <c r="G15" t="s">
         <v>5</v>
       </c>
@@ -1650,9 +1939,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1666,9 +1955,6 @@
       <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
       <c r="G16" t="s">
         <v>5</v>
       </c>
@@ -1790,9 +2076,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1806,9 +2092,6 @@
       <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
       <c r="G17" t="s">
         <v>5</v>
       </c>
@@ -1957,9 +2240,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -1973,9 +2256,6 @@
       <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" t="s">
         <v>5</v>
       </c>
@@ -2124,9 +2404,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -2140,9 +2420,6 @@
       <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
       <c r="G19" t="s">
         <v>5</v>
       </c>
@@ -2291,9 +2568,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -2307,9 +2584,6 @@
       <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
@@ -2458,9 +2732,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -2474,9 +2748,6 @@
       <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" t="s">
         <v>5</v>
       </c>
@@ -2625,9 +2896,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -2641,9 +2912,6 @@
       <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
       <c r="G22" t="s">
         <v>5</v>
       </c>
@@ -2792,9 +3060,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -2808,9 +3076,6 @@
       <c r="E23" t="s">
         <v>3</v>
       </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
       <c r="G23" t="s">
         <v>5</v>
       </c>
@@ -2986,9 +3251,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -3002,9 +3267,6 @@
       <c r="E24" t="s">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
-        <v>4</v>
-      </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
@@ -3180,9 +3442,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -3196,9 +3458,6 @@
       <c r="E25" t="s">
         <v>3</v>
       </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
       <c r="G25" t="s">
         <v>5</v>
       </c>
@@ -3374,9 +3633,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -3390,9 +3649,6 @@
       <c r="E26" t="s">
         <v>3</v>
       </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
       <c r="G26" t="s">
         <v>5</v>
       </c>
@@ -3568,9 +3824,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -3584,9 +3840,6 @@
       <c r="E27" t="s">
         <v>3</v>
       </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
       <c r="G27" t="s">
         <v>5</v>
       </c>
@@ -3762,9 +4015,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -3778,9 +4031,6 @@
       <c r="E28" t="s">
         <v>3</v>
       </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
       <c r="G28" t="s">
         <v>5</v>
       </c>
@@ -3956,9 +4206,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -3972,9 +4222,6 @@
       <c r="E29" t="s">
         <v>3</v>
       </c>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
       <c r="G29" t="s">
         <v>5</v>
       </c>
@@ -4150,9 +4397,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -4166,9 +4413,6 @@
       <c r="E30" t="s">
         <v>3</v>
       </c>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
       <c r="G30" t="s">
         <v>5</v>
       </c>
@@ -4371,9 +4615,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -4387,9 +4631,6 @@
       <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="F31" t="s">
-        <v>4</v>
-      </c>
       <c r="G31" t="s">
         <v>5</v>
       </c>
@@ -4592,9 +4833,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -4608,9 +4849,6 @@
       <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" t="s">
         <v>5</v>
       </c>
@@ -4813,9 +5051,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -4829,9 +5067,6 @@
       <c r="E33" t="s">
         <v>3</v>
       </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
       <c r="G33" t="s">
         <v>5</v>
       </c>
@@ -5034,9 +5269,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -5050,9 +5285,6 @@
       <c r="E34" t="s">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
       <c r="G34" t="s">
         <v>5</v>
       </c>
@@ -5255,9 +5487,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -5271,9 +5503,6 @@
       <c r="E35" t="s">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
-        <v>4</v>
-      </c>
       <c r="G35" t="s">
         <v>5</v>
       </c>
@@ -5476,9 +5705,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -5492,9 +5721,6 @@
       <c r="E36" t="s">
         <v>3</v>
       </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
       <c r="G36" t="s">
         <v>5</v>
       </c>
@@ -5697,9 +5923,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -5713,9 +5939,6 @@
       <c r="E37" t="s">
         <v>3</v>
       </c>
-      <c r="F37" t="s">
-        <v>4</v>
-      </c>
       <c r="G37" t="s">
         <v>5</v>
       </c>
@@ -5918,9 +6141,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -5934,9 +6157,6 @@
       <c r="E38" t="s">
         <v>3</v>
       </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
       <c r="G38" t="s">
         <v>5</v>
       </c>
@@ -6166,9 +6386,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -6182,9 +6402,6 @@
       <c r="E39" t="s">
         <v>3</v>
       </c>
-      <c r="F39" t="s">
-        <v>4</v>
-      </c>
       <c r="G39" t="s">
         <v>5</v>
       </c>
@@ -6414,9 +6631,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -6430,9 +6647,6 @@
       <c r="E40" t="s">
         <v>3</v>
       </c>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
       <c r="G40" t="s">
         <v>5</v>
       </c>
@@ -6662,7 +6876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -6678,9 +6892,6 @@
       <c r="E41" t="s">
         <v>3</v>
       </c>
-      <c r="F41" t="s">
-        <v>4</v>
-      </c>
       <c r="G41" t="s">
         <v>5</v>
       </c>
@@ -6910,7 +7121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -6926,9 +7137,6 @@
       <c r="E42" t="s">
         <v>3</v>
       </c>
-      <c r="F42" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" t="s">
         <v>5</v>
       </c>
@@ -7158,7 +7366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -7174,9 +7382,6 @@
       <c r="E43" t="s">
         <v>3</v>
       </c>
-      <c r="F43" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" t="s">
         <v>5</v>
       </c>
@@ -7406,7 +7611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -7422,9 +7627,6 @@
       <c r="E44" t="s">
         <v>3</v>
       </c>
-      <c r="F44" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" t="s">
         <v>5</v>
       </c>
@@ -7654,7 +7856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -7670,9 +7872,6 @@
       <c r="E45" t="s">
         <v>3</v>
       </c>
-      <c r="F45" t="s">
-        <v>4</v>
-      </c>
       <c r="G45" t="s">
         <v>5</v>
       </c>
@@ -7902,7 +8101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -7918,9 +8117,6 @@
       <c r="E46" t="s">
         <v>3</v>
       </c>
-      <c r="F46" t="s">
-        <v>4</v>
-      </c>
       <c r="G46" t="s">
         <v>5</v>
       </c>
@@ -8151,6 +8347,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>